--- a/nuevo.xlsx
+++ b/nuevo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\OneDrive - Estudiantes ITCR\II SEMESTRE 2020\Visualización de Información\Tareas\T2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\OneDrive - Estudiantes ITCR\II SEMESTRE 2020\Visualización de Información\Tareas\T2-VI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE24858-6A90-4595-B14D-758F85AAF70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494EA84F-7166-4E1D-BA46-B6CAA1C9F451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3888,27 +3888,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet 1"/>
+  <sheetPr codeName="Sheet 1" filterMode="1"/>
   <dimension ref="A1:W190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="E184" sqref="A1:E184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="23.75" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.75" customWidth="1"/>
-    <col min="15" max="15" width="18.375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="28.75" hidden="1" customWidth="1"/>
-    <col min="17" max="21" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="16.875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="15.75" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="13.125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3979,7 +3990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4050,7 +4061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -4121,7 +4132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4192,7 +4203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -4263,7 +4274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -4334,7 +4345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -4405,7 +4416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -4476,7 +4487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -4547,7 +4558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -4618,7 +4629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -4689,7 +4700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -4760,7 +4771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -4831,7 +4842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -4902,7 +4913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -4973,7 +4984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -5044,7 +5055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -5115,7 +5126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>226</v>
       </c>
@@ -5186,7 +5197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>238</v>
       </c>
@@ -5257,7 +5268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>246</v>
       </c>
@@ -5328,7 +5339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>255</v>
       </c>
@@ -5399,7 +5410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>264</v>
       </c>
@@ -5470,7 +5481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>275</v>
       </c>
@@ -5541,7 +5552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>285</v>
       </c>
@@ -5612,7 +5623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>292</v>
       </c>
@@ -5683,7 +5694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>300</v>
       </c>
@@ -5754,7 +5765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>305</v>
       </c>
@@ -5825,7 +5836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>316</v>
       </c>
@@ -5896,7 +5907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -5967,7 +5978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>336</v>
       </c>
@@ -6038,7 +6049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>343</v>
       </c>
@@ -6109,7 +6120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>347</v>
       </c>
@@ -6180,7 +6191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>353</v>
       </c>
@@ -6251,7 +6262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>358</v>
       </c>
@@ -6322,7 +6333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>367</v>
       </c>
@@ -6393,7 +6404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>373</v>
       </c>
@@ -6464,7 +6475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>379</v>
       </c>
@@ -6535,7 +6546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>384</v>
       </c>
@@ -6606,7 +6617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>392</v>
       </c>
@@ -6677,7 +6688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>400</v>
       </c>
@@ -6748,7 +6759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>406</v>
       </c>
@@ -6819,7 +6830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>412</v>
       </c>
@@ -6890,7 +6901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1159</v>
       </c>
@@ -6958,7 +6969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>423</v>
       </c>
@@ -7029,7 +7040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>433</v>
       </c>
@@ -7100,7 +7111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>437</v>
       </c>
@@ -7171,7 +7182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>444</v>
       </c>
@@ -7242,7 +7253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>449</v>
       </c>
@@ -7313,7 +7324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>455</v>
       </c>
@@ -7384,7 +7395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>465</v>
       </c>
@@ -7455,7 +7466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>473</v>
       </c>
@@ -7526,7 +7537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>477</v>
       </c>
@@ -7597,7 +7608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>483</v>
       </c>
@@ -7668,7 +7679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>488</v>
       </c>
@@ -7739,7 +7750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>493</v>
       </c>
@@ -7810,7 +7821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>500</v>
       </c>
@@ -7881,7 +7892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>505</v>
       </c>
@@ -7952,7 +7963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>513</v>
       </c>
@@ -8023,7 +8034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>517</v>
       </c>
@@ -8094,7 +8105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>522</v>
       </c>
@@ -8165,7 +8176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>528</v>
       </c>
@@ -8236,7 +8247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>534</v>
       </c>
@@ -8307,7 +8318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>541</v>
       </c>
@@ -8378,7 +8389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>549</v>
       </c>
@@ -8449,7 +8460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>556</v>
       </c>
@@ -8520,7 +8531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>562</v>
       </c>
@@ -8591,7 +8602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>569</v>
       </c>
@@ -8662,7 +8673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>573</v>
       </c>
@@ -8733,7 +8744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>576</v>
       </c>
@@ -8804,7 +8815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>582</v>
       </c>
@@ -8875,7 +8886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>587</v>
       </c>
@@ -8946,7 +8957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>593</v>
       </c>
@@ -9017,7 +9028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>598</v>
       </c>
@@ -9088,7 +9099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>602</v>
       </c>
@@ -9159,7 +9170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>608</v>
       </c>
@@ -9230,7 +9241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>612</v>
       </c>
@@ -9301,7 +9312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>615</v>
       </c>
@@ -9372,7 +9383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>623</v>
       </c>
@@ -9443,7 +9454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>628</v>
       </c>
@@ -9514,7 +9525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>633</v>
       </c>
@@ -9585,7 +9596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>641</v>
       </c>
@@ -9656,7 +9667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>645</v>
       </c>
@@ -9727,7 +9738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1158</v>
       </c>
@@ -9795,7 +9806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>654</v>
       </c>
@@ -9866,7 +9877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>660</v>
       </c>
@@ -9937,7 +9948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>668</v>
       </c>
@@ -10008,7 +10019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>675</v>
       </c>
@@ -10079,7 +10090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>683</v>
       </c>
@@ -10150,7 +10161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>686</v>
       </c>
@@ -10221,7 +10232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>693</v>
       </c>
@@ -10292,7 +10303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>697</v>
       </c>
@@ -10363,7 +10374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>704</v>
       </c>
@@ -10434,7 +10445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1157</v>
       </c>
@@ -10502,7 +10513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1156</v>
       </c>
@@ -10570,7 +10581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>717</v>
       </c>
@@ -10641,7 +10652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>725</v>
       </c>
@@ -10712,7 +10723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>729</v>
       </c>
@@ -10783,7 +10794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>733</v>
       </c>
@@ -10854,7 +10865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>738</v>
       </c>
@@ -10925,7 +10936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>745</v>
       </c>
@@ -10996,7 +11007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>749</v>
       </c>
@@ -11067,7 +11078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>753</v>
       </c>
@@ -11138,7 +11149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>757</v>
       </c>
@@ -11209,7 +11220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>762</v>
       </c>
@@ -11280,7 +11291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>769</v>
       </c>
@@ -11351,7 +11362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>773</v>
       </c>
@@ -11422,7 +11433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>777</v>
       </c>
@@ -11493,7 +11504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>781</v>
       </c>
@@ -11564,7 +11575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>789</v>
       </c>
@@ -11635,7 +11646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>792</v>
       </c>
@@ -11706,7 +11717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>796</v>
       </c>
@@ -11777,7 +11788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>802</v>
       </c>
@@ -11848,7 +11859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>808</v>
       </c>
@@ -11919,7 +11930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>813</v>
       </c>
@@ -11990,7 +12001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>817</v>
       </c>
@@ -12061,7 +12072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>824</v>
       </c>
@@ -12132,7 +12143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>827</v>
       </c>
@@ -12203,7 +12214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>832</v>
       </c>
@@ -12274,7 +12285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>837</v>
       </c>
@@ -12345,7 +12356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>841</v>
       </c>
@@ -12416,7 +12427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>846</v>
       </c>
@@ -12487,7 +12498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>851</v>
       </c>
@@ -12558,7 +12569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>855</v>
       </c>
@@ -12629,7 +12640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>859</v>
       </c>
@@ -12700,7 +12711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>865</v>
       </c>
@@ -12771,7 +12782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>871</v>
       </c>
@@ -12842,7 +12853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>877</v>
       </c>
@@ -12913,7 +12924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>881</v>
       </c>
@@ -12984,7 +12995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>885</v>
       </c>
@@ -13055,7 +13066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>889</v>
       </c>
@@ -13126,7 +13137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>895</v>
       </c>
@@ -13197,7 +13208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>902</v>
       </c>
@@ -13268,7 +13279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>905</v>
       </c>
@@ -13339,7 +13350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>908</v>
       </c>
@@ -13410,7 +13421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>911</v>
       </c>
@@ -13481,7 +13492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>920</v>
       </c>
@@ -13552,7 +13563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>924</v>
       </c>
@@ -13623,7 +13634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>928</v>
       </c>
@@ -13694,7 +13705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>933</v>
       </c>
@@ -13765,7 +13776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>939</v>
       </c>
@@ -13836,7 +13847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>946</v>
       </c>
@@ -13907,7 +13918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>951</v>
       </c>
@@ -13978,7 +13989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>955</v>
       </c>
@@ -14049,7 +14060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>960</v>
       </c>
@@ -14120,7 +14131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>963</v>
       </c>
@@ -14191,7 +14202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>970</v>
       </c>
@@ -14262,7 +14273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>975</v>
       </c>
@@ -14333,7 +14344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>979</v>
       </c>
@@ -14404,7 +14415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>982</v>
       </c>
@@ -14475,7 +14486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>984</v>
       </c>
@@ -14546,7 +14557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>990</v>
       </c>
@@ -14617,7 +14628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>994</v>
       </c>
@@ -14688,7 +14699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>997</v>
       </c>
@@ -14759,7 +14770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1000</v>
       </c>
@@ -14830,7 +14841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1006</v>
       </c>
@@ -14901,7 +14912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1011</v>
       </c>
@@ -14972,7 +14983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1015</v>
       </c>
@@ -15043,7 +15054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1018</v>
       </c>
@@ -15114,7 +15125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1020</v>
       </c>
@@ -15185,7 +15196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1024</v>
       </c>
@@ -15256,7 +15267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1028</v>
       </c>
@@ -15327,7 +15338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1033</v>
       </c>
@@ -15398,7 +15409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1040</v>
       </c>
@@ -15469,7 +15480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1044</v>
       </c>
@@ -15540,7 +15551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1050</v>
       </c>
@@ -15611,7 +15622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1056</v>
       </c>
@@ -15682,7 +15693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1060</v>
       </c>
@@ -15753,7 +15764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1155</v>
       </c>
@@ -15821,7 +15832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1067</v>
       </c>
@@ -15892,7 +15903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1070</v>
       </c>
@@ -15963,7 +15974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1072</v>
       </c>
@@ -16034,7 +16045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1076</v>
       </c>
@@ -16105,7 +16116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1080</v>
       </c>
@@ -16176,7 +16187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1085</v>
       </c>
@@ -16247,7 +16258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1089</v>
       </c>
@@ -16318,7 +16329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1093</v>
       </c>
@@ -16389,7 +16400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1098</v>
       </c>
@@ -16460,7 +16471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1102</v>
       </c>
@@ -16531,7 +16542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1106</v>
       </c>
@@ -16602,7 +16613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1111</v>
       </c>
@@ -16673,7 +16684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1118</v>
       </c>
@@ -16744,7 +16755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1125</v>
       </c>
@@ -16815,7 +16826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1131</v>
       </c>
@@ -16886,7 +16897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1154</v>
       </c>
@@ -16954,7 +16965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1140</v>
       </c>
@@ -17025,7 +17036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1144</v>
       </c>
@@ -17096,7 +17107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1145</v>
       </c>
@@ -17167,7 +17178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1148</v>
       </c>
@@ -17238,7 +17249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1151</v>
       </c>
@@ -17309,7 +17320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -17381,7 +17392,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W190" xr:uid="{B9AB345A-9FAC-40AE-8C2C-E2AADDEEBF3D}"/>
+  <autoFilter ref="A1:W190" xr:uid="{B9AB345A-9FAC-40AE-8C2C-E2AADDEEBF3D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Latin America"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
